--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/TENNESSEE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/TENNESSEE_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1079"/>
+  <dimension ref="A1:D1073"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C44">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C62">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C73">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C74">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C101">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C113">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C135">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C141">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C154">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C165">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C169">
@@ -2694,12 +2694,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C176">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C180">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C185">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C195">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C202">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C218">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C220">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C227">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C233">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C239">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C251">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C259">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C271">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C273">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C275">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C276">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C281">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C287">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C290">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C292">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C293">
@@ -4261,7 +4261,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C296">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C298">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C301">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C304">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C305">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C308">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C309">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C314">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C315">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C317">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C318">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C320">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C323">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C333">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C335">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C337">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C342">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C353">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C358">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C364">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C367">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C374">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C376">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C378">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C380">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C387">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C395">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C401">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C404">
@@ -5740,7 +5740,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C408">
@@ -5779,7 +5779,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C411">
@@ -5792,7 +5792,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C412">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C420">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C423">
@@ -5948,7 +5948,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C424">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C431">
@@ -6143,7 +6143,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C439">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C440">
@@ -6182,7 +6182,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C442">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C445">
@@ -6247,7 +6247,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C447">
@@ -6260,7 +6260,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C448">
@@ -6338,7 +6338,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C454">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C455">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C456">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C458">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C461">
@@ -7253,7 +7253,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C524">
@@ -7531,7 +7531,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C545">
@@ -7635,7 +7635,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C553">
@@ -7746,7 +7746,7 @@
         <v>62</v>
       </c>
       <c r="D561">
-        <v>0.009587134683779187</v>
+        <v>0.009587134683779188</v>
       </c>
     </row>
     <row r="562">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C584">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C587">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C590">
@@ -8183,7 +8183,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C594">
@@ -8196,7 +8196,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C595">
@@ -8209,7 +8209,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C596">
@@ -8222,7 +8222,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C597">
@@ -8235,7 +8235,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C598">
@@ -8287,7 +8287,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C602">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C604">
@@ -8326,7 +8326,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C605">
@@ -8339,7 +8339,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C606">
@@ -8352,7 +8352,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C607">
@@ -8365,7 +8365,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C608">
@@ -8391,7 +8391,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C610">
@@ -8404,7 +8404,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C611">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C619">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C621">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C626">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C636">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C654">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C662">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C669">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C687">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C712">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C720">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C722">
@@ -9860,7 +9860,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C723">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C724">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C726">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C728">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C730">
@@ -10060,7 +10060,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C738">
@@ -10229,7 +10229,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C751">
@@ -10320,7 +10320,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C758">
@@ -10437,7 +10437,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C767">
@@ -10554,7 +10554,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C776">
@@ -10567,7 +10567,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C777">
@@ -10580,7 +10580,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C778">
@@ -10593,7 +10593,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C779">
@@ -10632,7 +10632,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C782">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C794">
@@ -10819,7 +10819,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C796">
@@ -10897,7 +10897,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C802">
@@ -10910,7 +10910,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C803">
@@ -10936,7 +10936,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C805">
@@ -10962,7 +10962,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C807">
@@ -11167,7 +11167,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C822">
@@ -11284,7 +11284,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C831">
@@ -11349,7 +11349,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C836">
@@ -11401,7 +11401,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C840">
@@ -11414,7 +11414,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C841">
@@ -11479,7 +11479,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C846">
@@ -11531,7 +11531,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C850">
@@ -11544,7 +11544,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C851">
@@ -11557,7 +11557,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C852">
@@ -11570,7 +11570,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C853">
@@ -11583,7 +11583,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C854">
@@ -12370,7 +12370,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C913">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C923">
@@ -12570,7 +12570,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C928">
@@ -12679,7 +12679,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C936">
@@ -12757,7 +12757,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C942">
@@ -12809,7 +12809,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C946">
@@ -12913,7 +12913,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C954">
@@ -13108,7 +13108,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C969">
@@ -13147,7 +13147,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C972">
@@ -13160,7 +13160,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C973">
@@ -13251,7 +13251,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C980">
@@ -13316,7 +13316,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C985">
@@ -13342,7 +13342,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C987">
@@ -13394,7 +13394,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C991">
@@ -13485,7 +13485,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C998">
@@ -13498,7 +13498,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C999">
@@ -13537,7 +13537,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1002">
@@ -13589,7 +13589,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1006">
@@ -13615,7 +13615,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1008">
@@ -13927,7 +13927,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1032">
@@ -14080,7 +14080,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1043">
@@ -14093,7 +14093,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1044">
@@ -14197,7 +14197,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1052">
@@ -14262,7 +14262,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1057">
@@ -14275,7 +14275,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1058">
@@ -14366,7 +14366,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1065">
@@ -14478,41 +14478,6 @@
       </c>
       <c r="D1073">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="B1075" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="B1077" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="B1078" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="B1079" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
